--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -771,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +807,11 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Lượng thu</t>
         </is>
       </c>
@@ -823,7 +828,8 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1699,7 +1705,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>160714.2857142857</v>
+        <v>53571.42857142857</v>
       </c>
     </row>
     <row r="11">
@@ -1729,7 +1735,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1741428.571428571</v>
+        <v>1957142.857142857</v>
       </c>
     </row>
     <row r="13">
@@ -1744,7 +1750,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>427142.8571428572</v>
+        <v>535714.2857142857</v>
       </c>
     </row>
     <row r="14">
@@ -1759,7 +1765,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>455714.2857142857</v>
+        <v>528571.4285714286</v>
       </c>
     </row>
     <row r="15">
@@ -1774,7 +1780,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>427142.8571428572</v>
+        <v>640714.2857142857</v>
       </c>
     </row>
     <row r="16">
@@ -1789,7 +1795,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>284285.7142857143</v>
+        <v>355357.1428571428</v>
       </c>
     </row>
     <row r="17">
@@ -1875,7 +1881,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>6048809.523809524</v>
+        <v>6623452.380952381</v>
       </c>
     </row>
   </sheetData>
@@ -1889,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1900,69 +1906,103 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Doanh thu</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Tổng đơn giá</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ thanh toán</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Thu nợ</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tổng doanh thu</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Chi tiêu</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Quỹ lương</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Tổng chi phí</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Lợi nhuận</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Tỉ lệ lợi nhuận</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>11000000</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="C2" t="n">
-        <v>11000000</v>
+        <v>5500000</v>
       </c>
       <c r="D2" t="n">
-        <v>1857000</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>6048809.523809524</v>
+        <v>0.08333333333333337</v>
       </c>
       <c r="F2" t="n">
-        <v>7905809.523809524</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3094190.476190476</v>
+        <v>5500000</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2812900432900433</v>
+        <v>928500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6623452.380952381</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7551952.380952381</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2051952.380952381</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.373082251082251</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>535714.2857142857</v>
+        <v>-3464285.714285715</v>
       </c>
     </row>
     <row r="14">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>6623452.380952381</v>
+        <v>2623452.38095238</v>
       </c>
     </row>
   </sheetData>
@@ -1993,16 +1993,16 @@
         <v>928500</v>
       </c>
       <c r="I2" t="n">
-        <v>6623452.380952381</v>
+        <v>2623452.38095238</v>
       </c>
       <c r="J2" t="n">
-        <v>7551952.380952381</v>
+        <v>3551952.38095238</v>
       </c>
       <c r="K2" t="n">
-        <v>-2051952.380952381</v>
+        <v>1948047.61904762</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.373082251082251</v>
+        <v>0.3541904761904763</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,50 +713,206 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>622</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chị vui</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="I4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>634</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v/>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="R6" t="n">
         <v>1000000</v>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
         <v>100000</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -771,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,17 +975,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>174</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-581</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -844,7 +1033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,6 +1072,11 @@
           <t>Lượng chi</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -911,6 +1105,9 @@
       <c r="F2" t="n">
         <v>400000</v>
       </c>
+      <c r="G2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -939,6 +1136,9 @@
       <c r="F3" t="n">
         <v>610000</v>
       </c>
+      <c r="G3" t="n">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -967,6 +1167,9 @@
       <c r="F4" t="n">
         <v>500000</v>
       </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -995,6 +1198,9 @@
       <c r="F5" t="n">
         <v>247000</v>
       </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1023,22 +1229,119 @@
       <c r="F6" t="n">
         <v>100000</v>
       </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>762</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>763</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>765</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>1857000</v>
-      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>9967000</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1051,7 +1354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,7 +1417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1124,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1142,17 +1445,17 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1176,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1192,16 +1495,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1216,17 +1519,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1244,23 +1547,23 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>13000000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1279,40 +1582,6 @@
       </c>
       <c r="J6" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>45000000</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1353,7 +1622,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="3">
@@ -1363,7 +1632,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="4">
@@ -1389,21 +1658,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1857000</v>
+      <c r="B8" t="n">
+        <v>9967000</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1515,26 +1794,101 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6110000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-6110000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>12000000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1857000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9143000</v>
+      <c r="B7" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9967000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3033000</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1969,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>214285.7142857143</v>
+        <v>857142.8571428573</v>
       </c>
     </row>
     <row r="5">
@@ -1690,7 +2044,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>238095.2380952381</v>
+        <v>952380.9523809524</v>
       </c>
     </row>
     <row r="10">
@@ -1705,7 +2059,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>53571.42857142857</v>
+        <v>428571.4285714285</v>
       </c>
     </row>
     <row r="11">
@@ -1720,7 +2074,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>714285.7142857143</v>
+        <v>2857142.857142857</v>
       </c>
     </row>
     <row r="12">
@@ -1735,7 +2089,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1957142.857142857</v>
+        <v>-2471428.571428571</v>
       </c>
     </row>
     <row r="13">
@@ -1750,7 +2104,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-3464285.714285715</v>
+        <v>1517857.142857143</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +2119,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>528571.4285714286</v>
+        <v>1171428.571428572</v>
       </c>
     </row>
     <row r="15">
@@ -1780,7 +2134,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>640714.2857142857</v>
+        <v>2122142.857142857</v>
       </c>
     </row>
     <row r="16">
@@ -1795,7 +2149,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>355357.1428571428</v>
+        <v>995000</v>
       </c>
     </row>
     <row r="17">
@@ -1881,7 +2235,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>2623452.38095238</v>
+        <v>9815952.380952382</v>
       </c>
     </row>
   </sheetData>
@@ -1972,37 +2326,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6000000</v>
+        <v>14000000</v>
       </c>
       <c r="C2" t="n">
-        <v>5500000</v>
+        <v>13000000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08333333333333337</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5500000</v>
+        <v>13000000</v>
       </c>
       <c r="H2" t="n">
-        <v>928500</v>
+        <v>9967000</v>
       </c>
       <c r="I2" t="n">
-        <v>2623452.38095238</v>
+        <v>9815952.380952382</v>
       </c>
       <c r="J2" t="n">
-        <v>3551952.38095238</v>
+        <v>19782952.38095238</v>
       </c>
       <c r="K2" t="n">
-        <v>1948047.61904762</v>
+        <v>-6782952.380952381</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3541904761904763</v>
+        <v>-0.5217655677655677</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,50 +869,134 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>641</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Thanh nhã</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="R7" t="n">
         <v>1000000</v>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
         <v>100000</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1033,7 +1117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1329,19 +1413,112 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>773</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>774</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>90000</v>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>779</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>9967000</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>11157000</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1455,7 +1632,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12000000</v>
+        <v>17000000</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1529,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1557,13 +1734,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12000000</v>
+        <v>17000000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>13000000</v>
+        <v>18000000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1632,7 +1809,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>610000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="4">
@@ -1662,7 +1839,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="7">
@@ -1682,7 +1859,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9967000</v>
+        <v>11157000</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1869,26 +2046,76 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>190000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4810000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9967000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3033000</v>
+      <c r="B9" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11157000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6843000</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2271,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>952380.9523809524</v>
+        <v>1309523.809523809</v>
       </c>
     </row>
     <row r="10">
@@ -2059,7 +2286,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>428571.4285714285</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="11">
@@ -2074,7 +2301,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2857142.857142857</v>
+        <v>3928571.428571429</v>
       </c>
     </row>
     <row r="12">
@@ -2089,7 +2316,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2471428.571428571</v>
+        <v>-1250000</v>
       </c>
     </row>
     <row r="13">
@@ -2104,7 +2331,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1517857.142857143</v>
+        <v>1875000</v>
       </c>
     </row>
     <row r="14">
@@ -2119,7 +2346,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1171428.571428572</v>
+        <v>457142.8571428573</v>
       </c>
     </row>
     <row r="15">
@@ -2134,7 +2361,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2122142.857142857</v>
+        <v>3049285.714285715</v>
       </c>
     </row>
     <row r="16">
@@ -2149,7 +2376,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>995000</v>
+        <v>1137142.857142857</v>
       </c>
     </row>
     <row r="17">
@@ -2235,7 +2462,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>9815952.380952382</v>
+        <v>13499523.80952381</v>
       </c>
     </row>
   </sheetData>
@@ -2326,37 +2553,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14000000</v>
+        <v>19000000</v>
       </c>
       <c r="C2" t="n">
-        <v>13000000</v>
+        <v>18000000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.05263157894736847</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13000000</v>
+        <v>18000000</v>
       </c>
       <c r="H2" t="n">
-        <v>9967000</v>
+        <v>11157000</v>
       </c>
       <c r="I2" t="n">
-        <v>9815952.380952382</v>
+        <v>13499523.80952381</v>
       </c>
       <c r="J2" t="n">
-        <v>19782952.38095238</v>
+        <v>24656523.80952381</v>
       </c>
       <c r="K2" t="n">
-        <v>-6782952.380952381</v>
+        <v>-6656523.80952381</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.5217655677655677</v>
+        <v>-0.3698068783068783</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,51 +953,739 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>649</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>H-Sa</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>650</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mẹ mai sang</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sang sang</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>660</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V9" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>661</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yến</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>662</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>663</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cắt môi</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>664</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>672</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ngọc diễm</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>19000000</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>19000000</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>132500000</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>135500000</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>91000000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>91000000</v>
+      </c>
+      <c r="R15" t="n">
+        <v>44500000</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>650000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,18 +1780,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>193</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-581</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>0</v>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2000000</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,19 +2227,515 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>787</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>798</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>802</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08-14-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>70000</v>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>803</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08-14-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>214000</v>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>804</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>650000</v>
+      </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>805</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>808</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>815</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>816</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>380000</v>
+      </c>
+      <c r="G21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>817</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2467000</v>
+      </c>
+      <c r="G22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>828</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>829</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400000</v>
+      </c>
+      <c r="G24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>830</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>67000</v>
+      </c>
+      <c r="G25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>836</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G26" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>837</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G27" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>839</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G28" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>11157000</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>24685000</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1531,7 +2748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,7 +2811,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1604,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1616,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1628,17 +2845,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17000000</v>
+        <v>60500000</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>38000000</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1662,11 +2879,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>38000000</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1678,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1696,7 +2913,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1706,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7000000</v>
+        <v>23000000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1730,34 +2947,204 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sang sang</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>650000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>17000000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="B11" t="n">
+        <v>130500000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>68000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>650000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>100000</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,7 +3159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1805,61 +3192,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>800000</v>
+        <v>167000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>610000</v>
+        <v>1680000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>247000</v>
+        <v>4327000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>461000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15050000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>11157000</v>
+      <c r="B10" t="n">
+        <v>24685000</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +3280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1984,13 +3391,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G4" t="n">
-        <v>2000000</v>
+        <v>3700000</v>
       </c>
     </row>
     <row r="5">
@@ -2096,26 +3503,251 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1050000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08-14-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>284000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-284000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>47000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>47000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45850000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-130000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>63500000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4847000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>18153000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>567000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-567000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-2000000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>19000000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11157000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6843000</v>
+      <c r="B18" t="n">
+        <v>135500000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>91000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>13</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>24685000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>68315000</v>
       </c>
     </row>
   </sheetData>
@@ -2181,7 +3813,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="4">
@@ -2196,7 +3828,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>857142.8571428573</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="5">
@@ -2256,7 +3888,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1385714.285714286</v>
+        <v>3157142.857142857</v>
       </c>
     </row>
     <row r="9">
@@ -2271,7 +3903,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1309523.809523809</v>
+        <v>10619047.61904762</v>
       </c>
     </row>
     <row r="10">
@@ -2286,7 +3918,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>750000</v>
+        <v>2860714.285714285</v>
       </c>
     </row>
     <row r="11">
@@ -2301,7 +3933,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3928571.428571429</v>
+        <v>7857142.857142857</v>
       </c>
     </row>
     <row r="12">
@@ -2316,7 +3948,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1250000</v>
+        <v>-1107142.857142856</v>
       </c>
     </row>
     <row r="13">
@@ -2331,7 +3963,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1875000</v>
+        <v>2878571.428571429</v>
       </c>
     </row>
     <row r="14">
@@ -2346,7 +3978,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>457142.8571428573</v>
+        <v>507142.8571428573</v>
       </c>
     </row>
     <row r="15">
@@ -2361,7 +3993,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3049285.714285715</v>
+        <v>5685000</v>
       </c>
     </row>
     <row r="16">
@@ -2376,7 +4008,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1137142.857142857</v>
+        <v>1728571.428571429</v>
       </c>
     </row>
     <row r="17">
@@ -2391,7 +4023,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5700000</v>
       </c>
     </row>
     <row r="18">
@@ -2462,7 +4094,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>13499523.80952381</v>
+        <v>42343333.33333333</v>
       </c>
     </row>
   </sheetData>
@@ -2553,37 +4185,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19000000</v>
+        <v>135500000</v>
       </c>
       <c r="C2" t="n">
-        <v>18000000</v>
+        <v>91000000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.6715867158671587</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05263157894736847</v>
+        <v>0.3284132841328413</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="G2" t="n">
-        <v>18000000</v>
+        <v>93000000</v>
       </c>
       <c r="H2" t="n">
-        <v>11157000</v>
+        <v>24685000</v>
       </c>
       <c r="I2" t="n">
-        <v>13499523.80952381</v>
+        <v>42343333.33333333</v>
       </c>
       <c r="J2" t="n">
-        <v>24656523.80952381</v>
+        <v>67028333.33333333</v>
       </c>
       <c r="K2" t="n">
-        <v>-6656523.80952381</v>
+        <v>25971666.66666667</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3698068783068783</v>
+        <v>0.2792652329749105</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,7 +797,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08-07-2024</t>
+          <t>08-10-2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -806,27 +806,35 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v/>
-      </c>
-      <c r="F5" t="n">
-        <v/>
-      </c>
-      <c r="G5" t="n">
-        <v/>
-      </c>
-      <c r="H5" t="n">
-        <v/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Thanh nhã</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v/>
+        <v>5000000</v>
       </c>
       <c r="J5" t="n">
         <v/>
@@ -835,22 +843,24 @@
         <v/>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v/>
+        <v>5000000</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v/>
       </c>
       <c r="O5" t="n">
-        <v/>
+        <v>5000000</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -862,16 +872,16 @@
         <v/>
       </c>
       <c r="U5" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08-10-2024</t>
+          <t>08-15-2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -880,7 +890,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -889,12 +899,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tiêm botox</t>
+          <t>Nâng Mũi Dựng Trụ</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Thanh nhã</t>
+          <t>H-Sa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -904,11 +914,11 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5000000</v>
+        <v>38000000</v>
       </c>
       <c r="J6" t="n">
         <v/>
@@ -917,39 +927,43 @@
         <v/>
       </c>
       <c r="L6" t="n">
-        <v>5000000</v>
+        <v>38000000</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N6" t="n">
         <v/>
       </c>
       <c r="O6" t="n">
-        <v>5000000</v>
+        <v>38000000</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5000000</v>
+        <v>38000000</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="7">
@@ -964,7 +978,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,12 +987,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nâng Mũi Dựng Trụ</t>
+          <t>Nâng cung chân mày</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>H-Sa</t>
+          <t>Mẹ mai sang</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -988,11 +1002,11 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="J7" t="n">
         <v/>
@@ -1001,24 +1015,24 @@
         <v/>
       </c>
       <c r="L7" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N7" t="n">
         <v/>
       </c>
       <c r="O7" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1028,22 +1042,20 @@
           <t>Đào Vương Anh</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="T7" t="n">
+        <v/>
       </c>
       <c r="U7" t="n">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="V7" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08-15-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1052,7 +1064,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1061,12 +1073,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nâng cung chân mày</t>
+          <t>Nâng Mũi Dựng Trụ</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mẹ mai sang</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1076,11 +1088,11 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9000000</v>
+        <v>35000000</v>
       </c>
       <c r="J8" t="n">
         <v/>
@@ -1089,24 +1101,26 @@
         <v/>
       </c>
       <c r="L8" t="n">
-        <v>9000000</v>
+        <v>35000000</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v/>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
       </c>
       <c r="O8" t="n">
-        <v>9000000</v>
+        <v>20000000</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="Q8" t="n">
-        <v>9000000</v>
+        <v>35000000</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1120,10 +1134,10 @@
         <v/>
       </c>
       <c r="U8" t="n">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9">
@@ -1138,7 +1152,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1147,12 +1161,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nâng Mũi Dựng Trụ</t>
+          <t>Mở góc mắt</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Yến</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1162,11 +1176,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>35000000</v>
+        <v>3000000</v>
       </c>
       <c r="J9" t="n">
         <v/>
@@ -1175,29 +1189,27 @@
         <v/>
       </c>
       <c r="L9" t="n">
-        <v>35000000</v>
+        <v>3000000</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v/>
       </c>
       <c r="O9" t="n">
-        <v>20000000</v>
+        <v>3000000</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>20000000</v>
+        <v>3000000</v>
       </c>
       <c r="R9" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1208,10 +1220,10 @@
         <v/>
       </c>
       <c r="U9" t="n">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="V9" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1238,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1235,12 +1247,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mở góc mắt</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Yến</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1250,11 +1262,11 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="J10" t="n">
         <v/>
@@ -1263,7 +1275,7 @@
         <v/>
       </c>
       <c r="L10" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1274,16 +1286,16 @@
         <v/>
       </c>
       <c r="O10" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1312,7 +1324,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1321,7 +1333,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Cắt môi</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1340,7 +1352,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J11" t="n">
         <v/>
@@ -1349,7 +1361,7 @@
         <v/>
       </c>
       <c r="L11" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1363,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="R11" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1398,7 +1410,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1407,7 +1419,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cắt môi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1426,7 +1438,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5000000</v>
+        <v>14500000</v>
       </c>
       <c r="J12" t="n">
         <v/>
@@ -1435,11 +1447,11 @@
         <v/>
       </c>
       <c r="L12" t="n">
-        <v>5000000</v>
+        <v>14500000</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1455,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5000000</v>
+        <v>14500000</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1475,7 +1487,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1484,7 +1496,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1493,198 +1505,112 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Ngọc diễm</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>14500000</v>
+        <v>3000000</v>
       </c>
       <c r="J13" t="n">
         <v/>
       </c>
       <c r="K13" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="L13" t="n">
-        <v>14500000</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+        <v>6000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v/>
       </c>
       <c r="N13" t="n">
         <v/>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="R13" t="n">
-        <v>14500000</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="S13" t="n">
+        <v/>
       </c>
       <c r="T13" t="n">
         <v/>
       </c>
       <c r="U13" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>08-23-2024</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>672</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Điêu khắc mày</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Ngọc diễm</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
+        <v>132500000</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>3000000</v>
       </c>
       <c r="L14" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
+        <v>135500000</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="n">
-        <v>3000000</v>
+        <v>91000000</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="Q14" t="n">
-        <v>3000000</v>
+        <v>111000000</v>
       </c>
       <c r="R14" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
+        <v>24500000</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>132500000</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="L15" t="n">
-        <v>135500000</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>91000000</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>91000000</v>
-      </c>
-      <c r="R15" t="n">
-        <v>44500000</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>650000</v>
-      </c>
-      <c r="V15" t="n">
         <v>200000</v>
       </c>
     </row>
@@ -1699,7 +1625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1813,18 +1739,84 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>195</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-660</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>196</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-663</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>2000000</v>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>22000000</v>
       </c>
     </row>
   </sheetData>
@@ -1838,7 +1830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2249,7 +2241,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1050000</v>
+        <v>1000000</v>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -2417,11 +2409,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2431,11 +2423,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>130000</v>
+        <v>2000000</v>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -2448,7 +2440,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2462,11 +2454,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2000000</v>
+        <v>380000</v>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -2479,7 +2471,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2493,11 +2485,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>380000</v>
+        <v>2467000</v>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -2510,11 +2502,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2524,11 +2516,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2467000</v>
+        <v>100000</v>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -2541,7 +2533,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2555,11 +2547,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -2572,7 +2564,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2586,11 +2578,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>400000</v>
+        <v>67000</v>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -2603,11 +2595,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-22-2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2617,11 +2609,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>67000</v>
+        <v>2000000</v>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -2634,11 +2626,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08-22-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2648,11 +2640,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -2665,11 +2657,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-04-2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2679,11 +2671,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -2696,11 +2688,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2710,11 +2702,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -2723,19 +2715,112 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>851</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>108000</v>
+      </c>
+      <c r="G29" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>852</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="G30" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>853</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G31" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>24685000</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>26633000</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2873,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="4">
@@ -2923,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>23000000</v>
+        <v>28000000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3127,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>68000000</v>
+        <v>73000000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -3145,7 +3230,7 @@
         <v>100000</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
     </row>
   </sheetData>
@@ -3186,7 +3271,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2500000</v>
+        <v>3970000</v>
       </c>
     </row>
     <row r="3">
@@ -3206,7 +3291,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1680000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="5">
@@ -3236,7 +3321,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461000</v>
+        <v>569000</v>
       </c>
     </row>
     <row r="8">
@@ -3246,7 +3331,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15050000</v>
+        <v>15500000</v>
       </c>
     </row>
     <row r="9">
@@ -3266,7 +3351,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24685000</v>
+        <v>26633000</v>
       </c>
     </row>
   </sheetData>
@@ -3280,7 +3365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3438,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3519,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1050000</v>
+        <v>1000000</v>
       </c>
       <c r="G9" t="n">
-        <v>-1050000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="10">
@@ -3603,57 +3688,57 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>63500000</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>23000000</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>130000</v>
+        <v>4847000</v>
       </c>
       <c r="G13" t="n">
-        <v>-130000</v>
+        <v>18153000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63500000</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>23000000</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4847000</v>
+        <v>567000</v>
       </c>
       <c r="G14" t="n">
-        <v>18153000</v>
+        <v>-567000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-22-2024</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3669,85 +3754,110 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>567000</v>
+        <v>2000000</v>
       </c>
       <c r="G15" t="n">
-        <v>-567000</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08-22-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="G16" t="n">
-        <v>-2000000</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="F17" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2800000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2128000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2128000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>135500000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>91000000</v>
       </c>
-      <c r="D18" t="n">
-        <v>13</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="F18" t="n">
-        <v>24685000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>68315000</v>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26633000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>86367000</v>
       </c>
     </row>
   </sheetData>
@@ -3888,7 +3998,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3157142.857142857</v>
+        <v>3657142.857142857</v>
       </c>
     </row>
     <row r="9">
@@ -3903,7 +4013,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10619047.61904762</v>
+        <v>14269047.61904762</v>
       </c>
     </row>
     <row r="10">
@@ -3918,7 +4028,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2860714.285714285</v>
+        <v>3760714.285714285</v>
       </c>
     </row>
     <row r="11">
@@ -3963,7 +4073,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2878571.428571429</v>
+        <v>2928571.428571429</v>
       </c>
     </row>
     <row r="14">
@@ -4008,7 +4118,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1728571.428571429</v>
+        <v>1228571.428571429</v>
       </c>
     </row>
     <row r="17">
@@ -4094,7 +4204,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>42343333.33333333</v>
+        <v>46943333.33333333</v>
       </c>
     </row>
   </sheetData>
@@ -4188,34 +4298,34 @@
         <v>135500000</v>
       </c>
       <c r="C2" t="n">
-        <v>91000000</v>
+        <v>111000000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6715867158671587</v>
+        <v>0.8191881918819188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3284132841328413</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="F2" t="n">
         <v>2000000</v>
       </c>
       <c r="G2" t="n">
-        <v>93000000</v>
+        <v>113000000</v>
       </c>
       <c r="H2" t="n">
-        <v>24685000</v>
+        <v>26633000</v>
       </c>
       <c r="I2" t="n">
-        <v>42343333.33333333</v>
+        <v>46943333.33333333</v>
       </c>
       <c r="J2" t="n">
-        <v>67028333.33333333</v>
+        <v>73576333.33333333</v>
       </c>
       <c r="K2" t="n">
-        <v>25971666.66666667</v>
+        <v>39423666.66666667</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2792652329749105</v>
+        <v>0.3488820058997051</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1567,50 +1567,134 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>687</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>132500000</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>138500000</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
         <v>3000000</v>
       </c>
-      <c r="L14" t="n">
-        <v>135500000</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
+      <c r="L15" t="n">
+        <v>141500000</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
         <v>91000000</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>20000000</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>111000000</v>
       </c>
-      <c r="R14" t="n">
-        <v>24500000</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>650000</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="R15" t="n">
+        <v>30500000</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>700000</v>
+      </c>
+      <c r="V15" t="n">
         <v>200000</v>
       </c>
     </row>
@@ -1830,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2808,19 +2892,81 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>859</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2868000</v>
+      </c>
+      <c r="G32" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>860</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>117000</v>
+      </c>
+      <c r="G33" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>26633000</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>29618000</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2934,7 +3080,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60500000</v>
+        <v>66500000</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3206,7 +3352,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>130500000</v>
+        <v>136500000</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -3291,7 +3437,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1600000</v>
+        <v>4468000</v>
       </c>
     </row>
     <row r="5">
@@ -3321,7 +3467,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>569000</v>
+        <v>686000</v>
       </c>
     </row>
     <row r="8">
@@ -3351,7 +3497,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26633000</v>
+        <v>29618000</v>
       </c>
     </row>
   </sheetData>
@@ -3365,7 +3511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3838,26 +3984,51 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2985000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2985000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>135500000</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B20" t="n">
+        <v>141500000</v>
+      </c>
+      <c r="C20" t="n">
         <v>91000000</v>
       </c>
-      <c r="D19" t="n">
-        <v>12</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D20" t="n">
+        <v>13</v>
+      </c>
+      <c r="E20" t="n">
         <v>22000000</v>
       </c>
-      <c r="F19" t="n">
-        <v>26633000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>86367000</v>
+      <c r="F20" t="n">
+        <v>29618000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>83382000</v>
       </c>
     </row>
   </sheetData>
@@ -3914,16 +4085,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NV-29</t>
+          <t>NV-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="4">
@@ -3938,7 +4109,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
     </row>
     <row r="5">
@@ -4013,7 +4184,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14269047.61904762</v>
+        <v>14745238.0952381</v>
       </c>
     </row>
     <row r="10">
@@ -4028,7 +4199,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3760714.285714285</v>
+        <v>4082142.857142857</v>
       </c>
     </row>
     <row r="11">
@@ -4043,7 +4214,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7857142.857142857</v>
+        <v>9285714.285714285</v>
       </c>
     </row>
     <row r="12">
@@ -4058,7 +4229,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1107142.857142856</v>
+        <v>-535714.2857142854</v>
       </c>
     </row>
     <row r="13">
@@ -4073,7 +4244,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2928571.428571429</v>
+        <v>3285714.285714285</v>
       </c>
     </row>
     <row r="14">
@@ -4088,7 +4259,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>507142.8571428573</v>
+        <v>792857.1428571432</v>
       </c>
     </row>
     <row r="15">
@@ -4103,7 +4274,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5685000</v>
+        <v>5898571.428571429</v>
       </c>
     </row>
     <row r="16">
@@ -4118,7 +4289,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1228571.428571429</v>
+        <v>1512857.142857143</v>
       </c>
     </row>
     <row r="17">
@@ -4204,7 +4375,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>46943333.33333333</v>
+        <v>52710238.0952381</v>
       </c>
     </row>
   </sheetData>
@@ -4295,16 +4466,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135500000</v>
+        <v>141500000</v>
       </c>
       <c r="C2" t="n">
         <v>111000000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8191881918819188</v>
+        <v>0.784452296819788</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1808118081180812</v>
+        <v>0.215547703180212</v>
       </c>
       <c r="F2" t="n">
         <v>2000000</v>
@@ -4313,19 +4484,19 @@
         <v>113000000</v>
       </c>
       <c r="H2" t="n">
-        <v>26633000</v>
+        <v>29618000</v>
       </c>
       <c r="I2" t="n">
-        <v>46943333.33333333</v>
+        <v>52710238.0952381</v>
       </c>
       <c r="J2" t="n">
-        <v>73576333.33333333</v>
+        <v>82328238.09523809</v>
       </c>
       <c r="K2" t="n">
-        <v>39423666.66666667</v>
+        <v>30671761.90476191</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3488820058997051</v>
+        <v>0.2714315212810788</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1651,50 +1651,218 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>688</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>C.hạnh</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>689</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cầm dương</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R16" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>138500000</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>158000000</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
         <v>3000000</v>
       </c>
-      <c r="L15" t="n">
-        <v>141500000</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>91000000</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="L17" t="n">
+        <v>161000000</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>98500000</v>
+      </c>
+      <c r="P17" t="n">
         <v>20000000</v>
       </c>
-      <c r="Q15" t="n">
-        <v>111000000</v>
-      </c>
-      <c r="R15" t="n">
-        <v>30500000</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>700000</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="Q17" t="n">
+        <v>118500000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>42500000</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>800000</v>
+      </c>
+      <c r="V17" t="n">
         <v>200000</v>
       </c>
     </row>
@@ -1914,7 +2082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2954,19 +3122,81 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>861</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>157000</v>
+      </c>
+      <c r="G34" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>862</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>800000</v>
+      </c>
+      <c r="G35" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
-        <v>29618000</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>30575000</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3154,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>28000000</v>
+        <v>33500000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3182,7 +3412,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20000000</v>
+        <v>39500000</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3296,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>650000</v>
+        <v>700000</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -3352,22 +3582,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>136500000</v>
+        <v>156000000</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>73000000</v>
+        <v>78500000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>650000</v>
+        <v>700000</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -3437,7 +3667,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4468000</v>
+        <v>4625000</v>
       </c>
     </row>
     <row r="5">
@@ -3447,7 +3677,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4327000</v>
+        <v>5127000</v>
       </c>
     </row>
     <row r="6">
@@ -3497,7 +3727,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29618000</v>
+        <v>30575000</v>
       </c>
     </row>
   </sheetData>
@@ -3511,7 +3741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4009,26 +4239,51 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19500000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>957000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6543000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>141500000</v>
-      </c>
-      <c r="C20" t="n">
-        <v>91000000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>13</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="B21" t="n">
+        <v>161000000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>98500000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" t="n">
         <v>22000000</v>
       </c>
-      <c r="F20" t="n">
-        <v>29618000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>83382000</v>
+      <c r="F21" t="n">
+        <v>30575000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>89925000</v>
       </c>
     </row>
   </sheetData>
@@ -4042,7 +4297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4085,16 +4340,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NV-15</t>
+          <t>NV-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trương Lâm Khanh</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1500000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="4">
@@ -4130,12 +4385,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NV-39</t>
+          <t>NV-42</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+          <t>Cô Na giúp việc</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4145,177 +4400,177 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NV-42</t>
+          <t>NV-5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cô Na giúp việc</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4492857.142857143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NV-5</t>
+          <t>NV-6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3657142.857142857</v>
+        <v>14745238.0952381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NV-6</t>
+          <t>NV-7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14745238.0952381</v>
+        <v>4082142.857142857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NV-7</t>
+          <t>NV-9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4082142.857142857</v>
+        <v>9285714.285714285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NV-9</t>
+          <t>NV-22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9285714.285714285</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NV-22</t>
+          <t>NV-23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-535714.2857142854</v>
+        <v>3464285.714285715</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NV-23</t>
+          <t>NV-30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3285714.285714285</v>
+        <v>985714.2857142859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NV-30</t>
+          <t>NV-36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>792857.1428571432</v>
+        <v>6112142.857142857</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NV-36</t>
+          <t>NV-40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5898571.428571429</v>
+        <v>1655000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NV-40</t>
+          <t>NV-10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1512857.142857143</v>
+        <v>5700000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NV-10</t>
+          <t>NV-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NV-16</t>
+          <t>NV-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4325,12 +4580,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NV-26</t>
+          <t>NV-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4340,12 +4595,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NV-27</t>
+          <t>NV-38</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Lê Thị Ngọc Mi</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4355,27 +4610,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NV-38</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Lê Thị Ngọc Mi</t>
-        </is>
-      </c>
+          <t>Tổng lương</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>52710238.0952381</v>
+        <v>54008809.52380953</v>
       </c>
     </row>
   </sheetData>
@@ -4466,37 +4706,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141500000</v>
+        <v>161000000</v>
       </c>
       <c r="C2" t="n">
-        <v>111000000</v>
+        <v>118500000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.784452296819788</v>
+        <v>0.7360248447204969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.215547703180212</v>
+        <v>0.2639751552795031</v>
       </c>
       <c r="F2" t="n">
         <v>2000000</v>
       </c>
       <c r="G2" t="n">
-        <v>113000000</v>
+        <v>120500000</v>
       </c>
       <c r="H2" t="n">
-        <v>29618000</v>
+        <v>30575000</v>
       </c>
       <c r="I2" t="n">
-        <v>52710238.0952381</v>
+        <v>54008809.52380953</v>
       </c>
       <c r="J2" t="n">
-        <v>82328238.09523809</v>
+        <v>84583809.52380952</v>
       </c>
       <c r="K2" t="n">
-        <v>30671761.90476191</v>
+        <v>35916190.47619048</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2714315212810788</v>
+        <v>0.2980596720015807</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -2082,7 +2082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,11 +2475,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-13-2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -2506,11 +2506,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08-13-2024</t>
+          <t>08-14-2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2520,11 +2520,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3000000</v>
+        <v>70000</v>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>70000</v>
+        <v>214000</v>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -2568,11 +2568,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08-14-2024</t>
+          <t>08-15-2024</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2582,11 +2582,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>214000</v>
+        <v>650000</v>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>650000</v>
+        <v>500000</v>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -2630,11 +2630,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08-15-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2644,11 +2644,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2675,11 +2675,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2000000</v>
+        <v>380000</v>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2706,11 +2706,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>380000</v>
+        <v>2467000</v>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -2723,11 +2723,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2737,11 +2737,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2467000</v>
+        <v>100000</v>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2768,11 +2768,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="G22" t="n">
         <v/>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2799,11 +2799,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>400000</v>
+        <v>67000</v>
       </c>
       <c r="G23" t="n">
         <v/>
@@ -2816,11 +2816,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-22-2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2830,11 +2830,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>67000</v>
+        <v>2000000</v>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -2847,11 +2847,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08-22-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2861,11 +2861,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -2878,11 +2878,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-04-2024</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2892,11 +2892,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -2909,11 +2909,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2923,11 +2923,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2954,11 +2954,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>500000</v>
+        <v>108000</v>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2985,11 +2985,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>108000</v>
+        <v>1470000</v>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3016,11 +3016,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1470000</v>
+        <v>50000</v>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -3033,11 +3033,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-26-2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50000</v>
+        <v>2868000</v>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3078,11 +3078,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2868000</v>
+        <v>117000</v>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -3095,11 +3095,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>08-26-2024</t>
+          <t>08-27-2024</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3109,11 +3109,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>117000</v>
+        <v>157000</v>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -3126,7 +3126,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3140,11 +3140,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>157000</v>
+        <v>800000</v>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -3153,50 +3153,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>862</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>08-27-2024</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Chi Phí Vận Hành</t>
-        </is>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>800000</v>
-      </c>
-      <c r="G35" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>34</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
-        <v>30575000</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+        <v>29575000</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3707,7 +3676,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15500000</v>
+        <v>14500000</v>
       </c>
     </row>
     <row r="9">
@@ -3727,7 +3696,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30575000</v>
+        <v>29575000</v>
       </c>
     </row>
   </sheetData>
@@ -3741,7 +3710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3964,7 +3933,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-13-2024</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3980,16 +3949,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="G9" t="n">
-        <v>-1000000</v>
+        <v>-3000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08-13-2024</t>
+          <t>08-14-2024</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4005,91 +3974,91 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3000000</v>
+        <v>284000</v>
       </c>
       <c r="G10" t="n">
-        <v>-3000000</v>
+        <v>-284000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08-14-2024</t>
+          <t>08-15-2024</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>47000000</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>47000000</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>284000</v>
+        <v>1150000</v>
       </c>
       <c r="G11" t="n">
-        <v>-284000</v>
+        <v>45850000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>08-15-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>47000000</v>
+        <v>63500000</v>
       </c>
       <c r="C12" t="n">
-        <v>47000000</v>
+        <v>23000000</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1150000</v>
+        <v>4847000</v>
       </c>
       <c r="G12" t="n">
-        <v>45850000</v>
+        <v>18153000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63500000</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>23000000</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4847000</v>
+        <v>567000</v>
       </c>
       <c r="G13" t="n">
-        <v>18153000</v>
+        <v>-567000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-22-2024</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4105,66 +4074,66 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>567000</v>
+        <v>2000000</v>
       </c>
       <c r="G14" t="n">
-        <v>-567000</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08-22-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="G15" t="n">
-        <v>-2000000</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="F16" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2800000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08-24-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4177,113 +4146,88 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2128000</v>
       </c>
       <c r="G17" t="n">
-        <v>20000000</v>
+        <v>-2128000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-26-2024</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2128000</v>
+        <v>2985000</v>
       </c>
       <c r="G18" t="n">
-        <v>-2128000</v>
+        <v>-2985000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>08-26-2024</t>
+          <t>08-27-2024</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6000000</v>
+        <v>19500000</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7500000</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2985000</v>
+        <v>957000</v>
       </c>
       <c r="G19" t="n">
-        <v>-2985000</v>
+        <v>6543000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08-27-2024</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19500000</v>
+        <v>161000000</v>
       </c>
       <c r="C20" t="n">
-        <v>7500000</v>
+        <v>98500000</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>22000000</v>
       </c>
       <c r="F20" t="n">
-        <v>957000</v>
+        <v>29575000</v>
       </c>
       <c r="G20" t="n">
-        <v>6543000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>161000000</v>
-      </c>
-      <c r="C21" t="n">
-        <v>98500000</v>
-      </c>
-      <c r="D21" t="n">
-        <v>15</v>
-      </c>
-      <c r="E21" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>30575000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>89925000</v>
+        <v>90925000</v>
       </c>
     </row>
   </sheetData>
@@ -4297,7 +4241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4321,6 +4265,16 @@
           <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ứng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tổng lương thực nhận tại LONG XUYÊN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4336,6 +4290,12 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4351,6 +4311,12 @@
       <c r="C3" t="n">
         <v>100000</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4366,6 +4332,12 @@
       <c r="C4" t="n">
         <v>2785714.285714286</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2785714.285714286</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4381,241 +4353,364 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NV-42</t>
+          <t>NV-39</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cô Na giúp việc</t>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NV-5</t>
+          <t>NV-42</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Cô Na giúp việc</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4492857.142857143</v>
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NV-6</t>
+          <t>NV-5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14745238.0952381</v>
+        <v>4492857.142857143</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4492857.142857143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NV-7</t>
+          <t>NV-6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4082142.857142857</v>
+        <v>14745238.0952381</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14745238.0952381</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NV-9</t>
+          <t>NV-7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9285714.285714285</v>
+        <v>4082142.857142857</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4082142.857142857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NV-22</t>
+          <t>NV-9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>600000</v>
+        <v>9285714.285714285</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9285714.285714285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NV-23</t>
+          <t>NV-22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3464285.714285715</v>
+        <v>9885714.285714287</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>885714.2857142873</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NV-30</t>
+          <t>NV-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>985714.2857142859</v>
+        <v>4642857.142857143</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4642857.142857143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NV-36</t>
+          <t>NV-30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6112142.857142857</v>
+        <v>4128571.428571429</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1128571.428571429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NV-40</t>
+          <t>NV-36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1655000</v>
+        <v>6325714.285714285</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6325714.285714285</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NV-10</t>
+          <t>NV-40</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5700000</v>
+        <v>4297142.857142857</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1797142.857142857</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NV-16</t>
+          <t>NV-10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5700000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5700000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NV-26</t>
+          <t>NV-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NV-27</t>
+          <t>NV-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NV-38</t>
+          <t>NV-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lê Thị Ngọc Mi</t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>NV-38</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lê Thị Ngọc Mi</t>
+        </is>
+      </c>
       <c r="C21" t="n">
-        <v>54008809.52380953</v>
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>70471666.66666667</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>55971666.66666667</v>
       </c>
     </row>
   </sheetData>
@@ -4724,19 +4819,19 @@
         <v>120500000</v>
       </c>
       <c r="H2" t="n">
-        <v>30575000</v>
+        <v>29575000</v>
       </c>
       <c r="I2" t="n">
-        <v>54008809.52380953</v>
+        <v>70471666.66666667</v>
       </c>
       <c r="J2" t="n">
-        <v>84583809.52380952</v>
+        <v>100046666.6666667</v>
       </c>
       <c r="K2" t="n">
-        <v>35916190.47619048</v>
+        <v>20453333.33333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2980596720015807</v>
+        <v>0.1697372060857538</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -1535,8 +1535,10 @@
       <c r="L13" t="n">
         <v>6000000</v>
       </c>
-      <c r="M13" t="n">
-        <v/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
       </c>
       <c r="N13" t="n">
         <v/>
@@ -1877,7 +1879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1921,6 +1923,61 @@
           <t>Lượng thu</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1954,6 +2011,47 @@
       <c r="G2" t="n">
         <v/>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Chị vui</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1987,6 +2085,47 @@
       <c r="G3" t="n">
         <v>2000000</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Chị vui</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2020,6 +2159,51 @@
       <c r="G4" t="n">
         <v>15000000</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2052,6 +2236,49 @@
       </c>
       <c r="G5" t="n">
         <v>5000000</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cắt môi</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -2070,6 +2297,25 @@
       <c r="G6" t="n">
         <v>22000000</v>
       </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>46000000</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>46000000</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2082,7 +2328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3153,19 +3399,112 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>872</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>225000</v>
+      </c>
+      <c r="G35" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>875</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="G36" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>876</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>9193000</v>
+      </c>
+      <c r="G37" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>33</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="n">
-        <v>29575000</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>56993000</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3523,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>7000000</v>
+        <v>10000000</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -3557,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>78500000</v>
+        <v>81500000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -3626,7 +3965,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167000</v>
+        <v>18167000</v>
       </c>
     </row>
     <row r="4">
@@ -3666,7 +4005,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686000</v>
+        <v>911000</v>
       </c>
     </row>
     <row r="8">
@@ -3676,7 +4015,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14500000</v>
+        <v>23693000</v>
       </c>
     </row>
     <row r="9">
@@ -3696,7 +4035,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29575000</v>
+        <v>56993000</v>
       </c>
     </row>
   </sheetData>
@@ -3710,7 +4049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4208,26 +4547,76 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>225000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-225000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>27193000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-27193000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B22" t="n">
         <v>161000000</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C22" t="n">
         <v>98500000</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D22" t="n">
         <v>15</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E22" t="n">
         <v>22000000</v>
       </c>
-      <c r="F20" t="n">
-        <v>29575000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>90925000</v>
+      <c r="F22" t="n">
+        <v>56993000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>63507000</v>
       </c>
     </row>
   </sheetData>
@@ -4241,7 +4630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4300,75 +4689,75 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NV-29</t>
+          <t>NV-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100000</v>
+        <v>1785714.285714286</v>
       </c>
       <c r="D3" t="n">
         <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>100000</v>
+        <v>1785714.285714286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NV-33</t>
+          <t>NV-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pen Design </t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2785714.285714286</v>
+        <v>100000</v>
       </c>
       <c r="D4" t="n">
         <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>2785714.285714286</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NV-35</t>
+          <t>NV-33</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lâm Thị Hường</t>
+          <t xml:space="preserve">Pen Design </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3214285.714285715</v>
       </c>
       <c r="D5" t="n">
         <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3214285.714285715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NV-39</t>
+          <t>NV-35</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+          <t>Lâm Thị Hường</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4384,12 +4773,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NV-42</t>
+          <t>NV-39</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cô Na giúp việc</t>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4405,243 +4794,243 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NV-5</t>
+          <t>NV-42</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Cô Na giúp việc</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4492857.142857143</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>-0</v>
       </c>
       <c r="E8" t="n">
-        <v>4492857.142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NV-6</t>
+          <t>NV-5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14745238.0952381</v>
+        <v>4492857.142857143</v>
       </c>
       <c r="D9" t="n">
         <v>-0</v>
       </c>
       <c r="E9" t="n">
-        <v>14745238.0952381</v>
+        <v>4492857.142857143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NV-7</t>
+          <t>NV-6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4082142.857142857</v>
+        <v>15221428.57142857</v>
       </c>
       <c r="D10" t="n">
         <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>4082142.857142857</v>
+        <v>15221428.57142857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NV-9</t>
+          <t>NV-7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9285714.285714285</v>
+        <v>4403571.428571428</v>
       </c>
       <c r="D11" t="n">
         <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>9285714.285714285</v>
+        <v>4403571.428571428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NV-22</t>
+          <t>NV-9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9885714.285714287</v>
+        <v>10714285.71428571</v>
       </c>
       <c r="D12" t="n">
-        <v>9000000</v>
+        <v>-0</v>
       </c>
       <c r="E12" t="n">
-        <v>885714.2857142873</v>
+        <v>10714285.71428571</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NV-23</t>
+          <t>NV-22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4642857.142857143</v>
+        <v>10457142.85714286</v>
       </c>
       <c r="D13" t="n">
-        <v>-0</v>
+        <v>18193000</v>
       </c>
       <c r="E13" t="n">
-        <v>4642857.142857143</v>
+        <v>-7735857.142857142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NV-30</t>
+          <t>NV-23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4128571.428571429</v>
+        <v>5000000</v>
       </c>
       <c r="D14" t="n">
-        <v>3000000</v>
+        <v>-0</v>
       </c>
       <c r="E14" t="n">
-        <v>1128571.428571429</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NV-36</t>
+          <t>NV-30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6325714.285714285</v>
+        <v>4414285.714285715</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>3000000</v>
       </c>
       <c r="E15" t="n">
-        <v>6325714.285714285</v>
+        <v>1414285.714285715</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NV-40</t>
+          <t>NV-36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4297142.857142857</v>
+        <v>7052857.142857143</v>
       </c>
       <c r="D16" t="n">
-        <v>2500000</v>
+        <v>-0</v>
       </c>
       <c r="E16" t="n">
-        <v>1797142.857142857</v>
+        <v>7052857.142857143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NV-10</t>
+          <t>NV-40</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5700000</v>
+        <v>4581428.571428571</v>
       </c>
       <c r="D17" t="n">
-        <v>-0</v>
+        <v>2500000</v>
       </c>
       <c r="E17" t="n">
-        <v>5700000</v>
+        <v>2081428.571428571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NV-16</t>
+          <t>NV-10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>5700000</v>
       </c>
       <c r="D18" t="n">
         <v>-0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>5700000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NV-26</t>
+          <t>NV-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4657,12 +5046,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NV-27</t>
+          <t>NV-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4678,12 +5067,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NV-38</t>
+          <t>NV-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Lê Thị Ngọc Mi</t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4699,18 +5088,39 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>NV-38</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lê Thị Ngọc Mi</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>70471666.66666667</v>
-      </c>
-      <c r="D22" t="n">
-        <v>14500000</v>
-      </c>
-      <c r="E22" t="n">
-        <v>55971666.66666667</v>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>77137857.14285713</v>
+      </c>
+      <c r="D23" t="n">
+        <v>23693000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>53444857.14285713</v>
       </c>
     </row>
   </sheetData>
@@ -4819,19 +5229,19 @@
         <v>120500000</v>
       </c>
       <c r="H2" t="n">
-        <v>29575000</v>
+        <v>56993000</v>
       </c>
       <c r="I2" t="n">
-        <v>70471666.66666667</v>
+        <v>53444857.14285713</v>
       </c>
       <c r="J2" t="n">
-        <v>100046666.6666667</v>
+        <v>110437857.1428571</v>
       </c>
       <c r="K2" t="n">
-        <v>20453333.33333333</v>
+        <v>10062142.85714287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1697372060857538</v>
+        <v>0.08350326022525199</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,16 +529,6 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -619,12 +609,6 @@
       <c r="T2" t="n">
         <v/>
       </c>
-      <c r="U2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -705,12 +689,6 @@
       <c r="T3" t="n">
         <v/>
       </c>
-      <c r="U3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -787,12 +765,6 @@
       <c r="T4" t="n">
         <v/>
       </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -871,12 +843,6 @@
       <c r="T5" t="n">
         <v/>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -959,12 +925,6 @@
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v>150000</v>
-      </c>
-      <c r="V6" t="n">
-        <v>100000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1045,12 +1005,6 @@
       <c r="T7" t="n">
         <v/>
       </c>
-      <c r="U7" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1133,12 +1087,6 @@
       <c r="T8" t="n">
         <v/>
       </c>
-      <c r="U8" t="n">
-        <v>150000</v>
-      </c>
-      <c r="V8" t="n">
-        <v>100000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1219,12 +1167,6 @@
       <c r="T9" t="n">
         <v/>
       </c>
-      <c r="U9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1305,12 +1247,6 @@
       <c r="T10" t="n">
         <v/>
       </c>
-      <c r="U10" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1391,12 +1327,6 @@
       <c r="T11" t="n">
         <v/>
       </c>
-      <c r="U11" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1477,12 +1407,6 @@
       <c r="T12" t="n">
         <v/>
       </c>
-      <c r="U12" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1561,12 +1485,6 @@
       <c r="T13" t="n">
         <v/>
       </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1645,12 +1563,6 @@
       <c r="T14" t="n">
         <v/>
       </c>
-      <c r="U14" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1731,12 +1643,6 @@
       <c r="T15" t="n">
         <v/>
       </c>
-      <c r="U15" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1812,12 +1718,6 @@
       </c>
       <c r="T16" t="n">
         <v/>
-      </c>
-      <c r="U16" t="n">
-        <v>50000</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,12 +1761,6 @@
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>800000</v>
-      </c>
-      <c r="V17" t="n">
-        <v>200000</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1879,7 +1773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1945,37 +1839,17 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
+          <t>Dư nợ</t>
         </is>
       </c>
     </row>
@@ -2033,24 +1907,10 @@
         <v>3000000</v>
       </c>
       <c r="M2" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="N2" t="n">
-        <v/>
-      </c>
-      <c r="O2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2107,24 +1967,10 @@
         <v>3000000</v>
       </c>
       <c r="M3" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="N3" t="n">
-        <v/>
-      </c>
-      <c r="O3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Đặng Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2183,26 +2029,10 @@
         <v>35000000</v>
       </c>
       <c r="M4" t="n">
-        <v/>
+        <v>35000000</v>
       </c>
       <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2261,24 +2091,10 @@
         <v>5000000</v>
       </c>
       <c r="M5" t="n">
-        <v/>
+        <v>5000000</v>
       </c>
       <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2304,18 +2120,12 @@
       <c r="L6" t="n">
         <v>46000000</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>46000000</v>
+      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
-      <c r="O6" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>46000000</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 8 - 2024.xlsx
@@ -2138,7 +2138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3302,19 +3302,50 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>882</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G38" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>36</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>56993000</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>58993000</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3825,7 +3856,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23693000</v>
+        <v>25693000</v>
       </c>
     </row>
     <row r="9">
@@ -3845,7 +3876,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56993000</v>
+        <v>58993000</v>
       </c>
     </row>
   </sheetData>
@@ -3859,7 +3890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4407,26 +4438,51 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>161000000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>98500000</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>15</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E23" t="n">
         <v>22000000</v>
       </c>
-      <c r="F22" t="n">
-        <v>56993000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>63507000</v>
+      <c r="F23" t="n">
+        <v>58993000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>61507000</v>
       </c>
     </row>
   </sheetData>
@@ -4440,7 +4496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4508,13 +4564,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1785714.285714286</v>
+        <v>1857142.857142857</v>
       </c>
       <c r="D3" t="n">
         <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>1785714.285714286</v>
+        <v>1857142.857142857</v>
       </c>
     </row>
     <row r="4">
@@ -4550,13 +4606,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3214285.714285715</v>
+        <v>3321428.571428572</v>
       </c>
       <c r="D5" t="n">
         <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>3214285.714285715</v>
+        <v>3321428.571428572</v>
       </c>
     </row>
     <row r="6">
@@ -4625,243 +4681,243 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NV-5</t>
+          <t>NV-48</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Nguyễn hữu quang</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4492857.142857143</v>
+        <v>3333333.333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>2000000</v>
       </c>
       <c r="E9" t="n">
-        <v>4492857.142857143</v>
+        <v>1333333.333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NV-6</t>
+          <t>NV-5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15221428.57142857</v>
+        <v>4492857.142857143</v>
       </c>
       <c r="D10" t="n">
         <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>15221428.57142857</v>
+        <v>4492857.142857143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NV-7</t>
+          <t>NV-6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4403571.428571428</v>
+        <v>15340476.19047619</v>
       </c>
       <c r="D11" t="n">
         <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>4403571.428571428</v>
+        <v>15340476.19047619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NV-9</t>
+          <t>NV-7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10714285.71428571</v>
+        <v>4510714.285714285</v>
       </c>
       <c r="D12" t="n">
         <v>-0</v>
       </c>
       <c r="E12" t="n">
-        <v>10714285.71428571</v>
+        <v>4510714.285714285</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NV-22</t>
+          <t>NV-9</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10457142.85714286</v>
+        <v>11071428.57142857</v>
       </c>
       <c r="D13" t="n">
-        <v>18193000</v>
+        <v>-0</v>
       </c>
       <c r="E13" t="n">
-        <v>-7735857.142857142</v>
+        <v>11071428.57142857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NV-23</t>
+          <t>NV-22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5000000</v>
+        <v>10742857.14285714</v>
       </c>
       <c r="D14" t="n">
-        <v>-0</v>
+        <v>18193000</v>
       </c>
       <c r="E14" t="n">
-        <v>5000000</v>
+        <v>-7450142.857142856</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NV-30</t>
+          <t>NV-23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4414285.714285715</v>
+        <v>5178571.428571429</v>
       </c>
       <c r="D15" t="n">
-        <v>3000000</v>
+        <v>-0</v>
       </c>
       <c r="E15" t="n">
-        <v>1414285.714285715</v>
+        <v>5178571.428571429</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NV-36</t>
+          <t>NV-30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7052857.142857143</v>
+        <v>4557142.857142857</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>3000000</v>
       </c>
       <c r="E16" t="n">
-        <v>7052857.142857143</v>
+        <v>1557142.857142857</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NV-40</t>
+          <t>NV-36</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4581428.571428571</v>
+        <v>7052857.142857143</v>
       </c>
       <c r="D17" t="n">
-        <v>2500000</v>
+        <v>-0</v>
       </c>
       <c r="E17" t="n">
-        <v>2081428.571428571</v>
+        <v>7052857.142857143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NV-10</t>
+          <t>NV-40</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5700000</v>
+        <v>4723571.428571429</v>
       </c>
       <c r="D18" t="n">
-        <v>-0</v>
+        <v>2500000</v>
       </c>
       <c r="E18" t="n">
-        <v>5700000</v>
+        <v>2223571.428571429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NV-16</t>
+          <t>NV-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5700000</v>
       </c>
       <c r="D19" t="n">
         <v>-0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>5700000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NV-26</t>
+          <t>NV-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4877,12 +4933,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NV-27</t>
+          <t>NV-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4898,12 +4954,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NV-38</t>
+          <t>NV-27</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lê Thị Ngọc Mi</t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4919,18 +4975,39 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>NV-38</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lê Thị Ngọc Mi</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>77137857.14285713</v>
-      </c>
-      <c r="D23" t="n">
-        <v>23693000</v>
-      </c>
-      <c r="E23" t="n">
-        <v>53444857.14285713</v>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>81982380.95238096</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25693000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>56289380.95238094</v>
       </c>
     </row>
   </sheetData>
@@ -5039,19 +5116,19 @@
         <v>120500000</v>
       </c>
       <c r="H2" t="n">
-        <v>56993000</v>
+        <v>58993000</v>
       </c>
       <c r="I2" t="n">
-        <v>53444857.14285713</v>
+        <v>56289380.95238094</v>
       </c>
       <c r="J2" t="n">
-        <v>110437857.1428571</v>
+        <v>115282380.9523809</v>
       </c>
       <c r="K2" t="n">
-        <v>10062142.85714287</v>
+        <v>5217619.04761906</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08350326022525199</v>
+        <v>0.04329974313376813</v>
       </c>
     </row>
   </sheetData>
